--- a/keywords_topics.xlsx
+++ b/keywords_topics.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\03. Analyst Folders\UConn Data Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bae06aa44512d535/py projects/CSE4939W Project - BERT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1EAC75-A253-47EA-8538-CDBA0545B653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{218DD965-828D-47FC-B593-F31ECC953F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D32E4093-B82D-4934-8EEE-67113FC56372}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{8FBF4E4E-585C-4481-A000-EA051675D114}"/>
+    <workbookView xWindow="1470" yWindow="810" windowWidth="24495" windowHeight="14205" activeTab="2" xr2:uid="{8FBF4E4E-585C-4481-A000-EA051675D114}"/>
   </bookViews>
   <sheets>
     <sheet name="Key Words_Topics" sheetId="1" r:id="rId1"/>
     <sheet name="Companies" sheetId="2" r:id="rId2"/>
+    <sheet name="Key Words_Topics_Streamlined" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Key Words_Topics_Streamlined'!$A$1:$C$109</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="298">
   <si>
     <t>Revenue</t>
   </si>
@@ -883,6 +887,54 @@
   </si>
   <si>
     <t>CB US EQUITY</t>
+  </si>
+  <si>
+    <t>Buy back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share Repurchase </t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Revenue growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan-to-Value </t>
+  </si>
+  <si>
+    <t>Capital Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same Store sales </t>
+  </si>
+  <si>
+    <t>Lay offs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue Growth </t>
+  </si>
+  <si>
+    <t>GLP-1</t>
+  </si>
+  <si>
+    <t>Economic stimulus</t>
+  </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>Credit card balance</t>
+  </si>
+  <si>
+    <t>IT spending</t>
+  </si>
+  <si>
+    <t>Trading revenues</t>
   </si>
 </sst>
 </file>
@@ -1248,24 +1300,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC033A9-0400-479A-8F6C-3D93A631A354}">
   <dimension ref="A1:C232"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B218" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D88" sqref="D88"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>227</v>
       </c>
@@ -1276,7 +1328,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1339,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1298,7 +1350,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1309,7 +1361,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1320,7 +1372,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1331,7 +1383,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1342,7 +1394,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1353,7 +1405,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1364,7 +1416,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1375,7 +1427,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1386,7 +1438,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1397,7 +1449,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1408,7 +1460,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1419,7 +1471,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1430,7 +1482,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1441,7 +1493,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1452,7 +1504,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1463,7 +1515,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1474,7 +1526,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1485,7 +1537,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,7 +1548,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1507,7 +1559,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1518,7 +1570,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1529,7 +1581,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1540,7 +1592,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1551,7 +1603,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1562,7 +1614,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1573,7 +1625,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1584,7 +1636,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1595,7 +1647,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1606,7 +1658,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1617,7 +1669,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1628,7 +1680,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1639,7 +1691,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1650,7 +1702,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1661,7 +1713,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1672,7 +1724,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1683,7 +1735,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1694,7 +1746,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1705,7 +1757,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1716,7 +1768,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1727,7 +1779,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1738,7 +1790,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1749,7 +1801,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -1760,7 +1812,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,7 +1823,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -1782,7 +1834,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1793,7 +1845,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -1804,7 +1856,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1815,7 +1867,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -1826,7 +1878,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -1837,7 +1889,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -1848,7 +1900,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -1859,7 +1911,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -1870,7 +1922,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -1881,7 +1933,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -1892,7 +1944,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -1903,7 +1955,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -1914,7 +1966,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>82</v>
       </c>
@@ -1925,7 +1977,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>83</v>
       </c>
@@ -1936,7 +1988,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>84</v>
       </c>
@@ -1947,7 +1999,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>85</v>
       </c>
@@ -1958,7 +2010,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>86</v>
       </c>
@@ -1969,7 +2021,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>87</v>
       </c>
@@ -1980,7 +2032,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>88</v>
       </c>
@@ -1991,7 +2043,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>89</v>
       </c>
@@ -2002,7 +2054,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>90</v>
       </c>
@@ -2013,7 +2065,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>91</v>
       </c>
@@ -2024,7 +2076,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>92</v>
       </c>
@@ -2035,7 +2087,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>93</v>
       </c>
@@ -2046,7 +2098,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>94</v>
       </c>
@@ -2057,7 +2109,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>95</v>
       </c>
@@ -2068,7 +2120,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>96</v>
       </c>
@@ -2079,7 +2131,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>97</v>
       </c>
@@ -2090,7 +2142,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>98</v>
       </c>
@@ -2101,7 +2153,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>99</v>
       </c>
@@ -2112,7 +2164,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>100</v>
       </c>
@@ -2123,7 +2175,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>101</v>
       </c>
@@ -2134,7 +2186,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>102</v>
       </c>
@@ -2145,7 +2197,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>103</v>
       </c>
@@ -2156,7 +2208,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>104</v>
       </c>
@@ -2167,7 +2219,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>105</v>
       </c>
@@ -2178,7 +2230,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>106</v>
       </c>
@@ -2189,7 +2241,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>107</v>
       </c>
@@ -2200,7 +2252,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
@@ -2211,7 +2263,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>109</v>
       </c>
@@ -2222,7 +2274,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>110</v>
       </c>
@@ -2233,7 +2285,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>111</v>
       </c>
@@ -2244,7 +2296,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>112</v>
       </c>
@@ -2255,7 +2307,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>113</v>
       </c>
@@ -2266,7 +2318,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>114</v>
       </c>
@@ -2277,7 +2329,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>115</v>
       </c>
@@ -2288,7 +2340,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>116</v>
       </c>
@@ -2299,7 +2351,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>117</v>
       </c>
@@ -2310,7 +2362,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>118</v>
       </c>
@@ -2321,7 +2373,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>119</v>
       </c>
@@ -2332,7 +2384,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>120</v>
       </c>
@@ -2343,7 +2395,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>121</v>
       </c>
@@ -2354,7 +2406,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>122</v>
       </c>
@@ -2365,7 +2417,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>123</v>
       </c>
@@ -2376,7 +2428,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>124</v>
       </c>
@@ -2387,7 +2439,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>125</v>
       </c>
@@ -2398,7 +2450,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>73</v>
       </c>
@@ -2409,7 +2461,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>74</v>
       </c>
@@ -2420,7 +2472,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>75</v>
       </c>
@@ -2431,7 +2483,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>76</v>
       </c>
@@ -2442,7 +2494,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>61</v>
       </c>
@@ -2453,7 +2505,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>77</v>
       </c>
@@ -2464,7 +2516,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>45</v>
       </c>
@@ -2475,7 +2527,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>78</v>
       </c>
@@ -2486,7 +2538,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>79</v>
       </c>
@@ -2497,7 +2549,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>80</v>
       </c>
@@ -2508,7 +2560,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>81</v>
       </c>
@@ -2519,7 +2571,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>58</v>
       </c>
@@ -2530,7 +2582,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>59</v>
       </c>
@@ -2541,7 +2593,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>60</v>
       </c>
@@ -2552,7 +2604,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>62</v>
       </c>
@@ -2563,7 +2615,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>63</v>
       </c>
@@ -2574,7 +2626,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>64</v>
       </c>
@@ -2585,7 +2637,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>65</v>
       </c>
@@ -2596,7 +2648,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>66</v>
       </c>
@@ -2607,7 +2659,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>67</v>
       </c>
@@ -2618,7 +2670,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>68</v>
       </c>
@@ -2629,7 +2681,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>69</v>
       </c>
@@ -2640,7 +2692,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>70</v>
       </c>
@@ -2651,7 +2703,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>243</v>
       </c>
@@ -2662,7 +2714,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>71</v>
       </c>
@@ -2673,7 +2725,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>72</v>
       </c>
@@ -2684,7 +2736,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
@@ -2695,7 +2747,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
@@ -2706,7 +2758,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>132</v>
       </c>
@@ -2717,7 +2769,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
@@ -2728,7 +2780,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
@@ -2739,7 +2791,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
@@ -2750,7 +2802,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>244</v>
       </c>
@@ -2761,7 +2813,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
@@ -2772,7 +2824,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
@@ -2783,7 +2835,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>139</v>
       </c>
@@ -2794,7 +2846,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>140</v>
       </c>
@@ -2805,7 +2857,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
@@ -2816,7 +2868,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>142</v>
       </c>
@@ -2827,7 +2879,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
@@ -2838,7 +2890,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>144</v>
       </c>
@@ -2849,7 +2901,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>145</v>
       </c>
@@ -2860,7 +2912,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>146</v>
       </c>
@@ -2871,7 +2923,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>147</v>
       </c>
@@ -2882,7 +2934,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>148</v>
       </c>
@@ -2893,7 +2945,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>149</v>
       </c>
@@ -2904,7 +2956,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>150</v>
       </c>
@@ -2915,7 +2967,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>48</v>
       </c>
@@ -2926,7 +2978,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
@@ -2937,7 +2989,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
@@ -2948,7 +3000,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
@@ -2959,7 +3011,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
@@ -2970,7 +3022,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
@@ -2981,7 +3033,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>248</v>
       </c>
@@ -2992,7 +3044,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>156</v>
       </c>
@@ -3003,7 +3055,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>126</v>
       </c>
@@ -3014,7 +3066,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>157</v>
       </c>
@@ -3025,7 +3077,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>158</v>
       </c>
@@ -3036,7 +3088,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>159</v>
       </c>
@@ -3047,7 +3099,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>249</v>
       </c>
@@ -3058,7 +3110,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>160</v>
       </c>
@@ -3069,7 +3121,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>161</v>
       </c>
@@ -3080,7 +3132,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>80</v>
       </c>
@@ -3091,7 +3143,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>162</v>
       </c>
@@ -3102,7 +3154,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>163</v>
       </c>
@@ -3113,7 +3165,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>164</v>
       </c>
@@ -3124,7 +3176,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>165</v>
       </c>
@@ -3135,7 +3187,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>166</v>
       </c>
@@ -3146,7 +3198,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>167</v>
       </c>
@@ -3157,7 +3209,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>168</v>
       </c>
@@ -3168,7 +3220,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>169</v>
       </c>
@@ -3179,7 +3231,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>170</v>
       </c>
@@ -3190,7 +3242,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>171</v>
       </c>
@@ -3201,7 +3253,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>172</v>
       </c>
@@ -3212,7 +3264,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>173</v>
       </c>
@@ -3223,7 +3275,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>174</v>
       </c>
@@ -3234,7 +3286,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>175</v>
       </c>
@@ -3245,7 +3297,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>176</v>
       </c>
@@ -3256,7 +3308,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>177</v>
       </c>
@@ -3267,7 +3319,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>178</v>
       </c>
@@ -3278,7 +3330,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>179</v>
       </c>
@@ -3289,7 +3341,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>180</v>
       </c>
@@ -3300,7 +3352,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>181</v>
       </c>
@@ -3311,7 +3363,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>182</v>
       </c>
@@ -3322,7 +3374,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>183</v>
       </c>
@@ -3333,7 +3385,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>184</v>
       </c>
@@ -3344,7 +3396,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>185</v>
       </c>
@@ -3355,7 +3407,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>186</v>
       </c>
@@ -3366,7 +3418,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>187</v>
       </c>
@@ -3377,7 +3429,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>188</v>
       </c>
@@ -3388,7 +3440,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>189</v>
       </c>
@@ -3399,7 +3451,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>190</v>
       </c>
@@ -3410,7 +3462,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>77</v>
       </c>
@@ -3421,7 +3473,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>191</v>
       </c>
@@ -3432,7 +3484,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>192</v>
       </c>
@@ -3443,7 +3495,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>193</v>
       </c>
@@ -3454,7 +3506,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>194</v>
       </c>
@@ -3465,7 +3517,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>196</v>
       </c>
@@ -3476,7 +3528,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>197</v>
       </c>
@@ -3487,7 +3539,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>198</v>
       </c>
@@ -3498,7 +3550,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>199</v>
       </c>
@@ -3509,7 +3561,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>200</v>
       </c>
@@ -3520,7 +3572,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>201</v>
       </c>
@@ -3531,7 +3583,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>202</v>
       </c>
@@ -3542,7 +3594,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>203</v>
       </c>
@@ -3553,7 +3605,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>204</v>
       </c>
@@ -3564,7 +3616,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>205</v>
       </c>
@@ -3575,7 +3627,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>206</v>
       </c>
@@ -3586,7 +3638,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>207</v>
       </c>
@@ -3597,7 +3649,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>208</v>
       </c>
@@ -3608,7 +3660,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>209</v>
       </c>
@@ -3619,7 +3671,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>210</v>
       </c>
@@ -3630,7 +3682,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>211</v>
       </c>
@@ -3641,7 +3693,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>212</v>
       </c>
@@ -3652,7 +3704,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>213</v>
       </c>
@@ -3663,7 +3715,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>214</v>
       </c>
@@ -3674,7 +3726,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>215</v>
       </c>
@@ -3685,7 +3737,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>216</v>
       </c>
@@ -3696,7 +3748,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>217</v>
       </c>
@@ -3707,7 +3759,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>218</v>
       </c>
@@ -3718,7 +3770,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>219</v>
       </c>
@@ -3729,7 +3781,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>220</v>
       </c>
@@ -3740,7 +3792,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>221</v>
       </c>
@@ -3751,7 +3803,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>222</v>
       </c>
@@ -3762,7 +3814,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>223</v>
       </c>
@@ -3773,7 +3825,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>224</v>
       </c>
@@ -3784,7 +3836,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>45</v>
       </c>
@@ -3795,7 +3847,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>225</v>
       </c>
@@ -3806,7 +3858,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>226</v>
       </c>
@@ -3827,17 +3879,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564EC35B-4FA6-4EB3-B32D-87D54D063774}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>262</v>
       </c>
@@ -3845,7 +3897,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>230</v>
       </c>
@@ -3853,7 +3905,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>231</v>
       </c>
@@ -3861,7 +3913,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>258</v>
       </c>
@@ -3869,7 +3921,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>232</v>
       </c>
@@ -3877,7 +3929,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>271</v>
       </c>
@@ -3885,7 +3937,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -3893,7 +3945,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>234</v>
       </c>
@@ -3901,7 +3953,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>274</v>
       </c>
@@ -3909,7 +3961,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>278</v>
       </c>
@@ -3917,7 +3969,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>277</v>
       </c>
@@ -3925,7 +3977,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>280</v>
       </c>
@@ -3933,7 +3985,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>235</v>
       </c>
@@ -3941,7 +3993,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>236</v>
       </c>
@@ -3949,7 +4001,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>237</v>
       </c>
@@ -3957,7 +4009,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>267</v>
       </c>
@@ -3965,7 +4017,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>238</v>
       </c>
@@ -3973,7 +4025,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>239</v>
       </c>
@@ -3985,4 +4037,1264 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56960DB-7769-4606-A3A2-A0FB86B245C1}">
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C119" sqref="C119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>294</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C43" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B55" t="s">
+        <v>242</v>
+      </c>
+      <c r="C55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C60" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C62" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C66" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C67" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C68" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C69" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C70" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C71" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C72" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C73" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C74" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C75" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C76" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C77" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C78" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C79" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C80" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C82" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C84" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C86" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C87" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C88" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C92" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C96" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C98" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C101" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C102" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C103" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C104" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C105" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C106" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C108" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C109" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C110" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C112" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C109" xr:uid="{F56960DB-7769-4606-A3A2-A0FB86B245C1}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/keywords_topics.xlsx
+++ b/keywords_topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bae06aa44512d535/py projects/CSE4939W Project - BERT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{218DD965-828D-47FC-B593-F31ECC953F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D32E4093-B82D-4934-8EEE-67113FC56372}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{218DD965-828D-47FC-B593-F31ECC953F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E15DABE8-D5FE-4F49-8B66-840DBDDEF795}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="810" windowWidth="24495" windowHeight="14205" activeTab="2" xr2:uid="{8FBF4E4E-585C-4481-A000-EA051675D114}"/>
   </bookViews>
@@ -4044,10 +4044,10 @@
   <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C119" sqref="C119"/>
+      <selection pane="bottomRight" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5278,7 +5278,7 @@
         <v>136</v>
       </c>
       <c r="C111" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
